--- a/Advent of Code/2022/aoc_2017_working.xlsx
+++ b/Advent of Code/2022/aoc_2017_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\PycharmProjects\advent_of_code\Advent of Code\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C01509-1A17-4BA4-AAA4-B3A169BA8E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB3EC7F-1EB8-44B3-A871-0F7122484D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7AE71F2B-8911-4075-838D-F0DFCB6683F0}"/>
   </bookViews>
